--- a/output/fit_clients/fit_round_114.xlsx
+++ b/output/fit_clients/fit_round_114.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2420001689.66662</v>
+        <v>1735542255.598475</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08688327338361407</v>
+        <v>0.1132973156916664</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04302074136275399</v>
+        <v>0.04182522977449465</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1210000896.922867</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1790700486.863619</v>
+        <v>1666265998.399612</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1333614284822008</v>
+        <v>0.1620938299389768</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03595958307461441</v>
+        <v>0.04726552883035549</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>895350251.0229652</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5155009233.723492</v>
+        <v>3594672314.396866</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1574465173929862</v>
+        <v>0.1628984260090108</v>
       </c>
       <c r="G4" t="n">
-        <v>0.033196482973795</v>
+        <v>0.02652202882784759</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>41</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2577504712.816838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3005917903.097619</v>
+        <v>3730695961.212239</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0730189066936235</v>
+        <v>0.08876656285306382</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04788296747230779</v>
+        <v>0.04129106329094727</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1502959020.978708</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2505349640.748949</v>
+        <v>2180844898.732833</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1342714263948299</v>
+        <v>0.1318823788528199</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04632632233010976</v>
+        <v>0.05570733781823808</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1252674795.225059</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2532050481.984646</v>
+        <v>3066824484.147253</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06450658697685607</v>
+        <v>0.09576710480947501</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03181896680795455</v>
+        <v>0.03590133185481864</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>36</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1266025250.914772</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3940672582.638014</v>
+        <v>3363008702.147041</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1569800699741381</v>
+        <v>0.1868785958152126</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02110309569685848</v>
+        <v>0.02485289155198745</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>37</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1970336444.93463</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1403868918.995212</v>
+        <v>2186759417.269583</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1443329901468589</v>
+        <v>0.150954282811375</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03495783045724988</v>
+        <v>0.03079349247823867</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>701934568.7795894</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4750832789.247037</v>
+        <v>4254441400.498759</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2049784398633766</v>
+        <v>0.1639292477201227</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03458122344808615</v>
+        <v>0.03861469142980149</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>48</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2375416474.570952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2698031143.209606</v>
+        <v>3479529052.859199</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1644550320266955</v>
+        <v>0.1193101293007224</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03819056397457696</v>
+        <v>0.04250012843224887</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>48</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1349015493.398938</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3071016706.442923</v>
+        <v>2404567943.382573</v>
       </c>
       <c r="F12" t="n">
-        <v>0.135550724185103</v>
+        <v>0.1913444028794196</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05149447267893772</v>
+        <v>0.04549142520779451</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>40</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1535508377.673278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5219846419.048467</v>
+        <v>4936362099.729409</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07010510301065846</v>
+        <v>0.07738726046753545</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02182881138773572</v>
+        <v>0.02682531831803597</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>38</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2609923202.436408</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3648894614.591648</v>
+        <v>2380394808.938267</v>
       </c>
       <c r="F14" t="n">
-        <v>0.168124381728653</v>
+        <v>0.1503702543064358</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03804382439318407</v>
+        <v>0.02862090511343858</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>36</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1824447294.701108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1780604921.531546</v>
+        <v>1554664403.628147</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08366082060094077</v>
+        <v>0.08027373474001162</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0314910815311169</v>
+        <v>0.0327869310557227</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>890302609.8203601</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2853108550.068606</v>
+        <v>2265083141.500918</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09156434973323484</v>
+        <v>0.105748286894263</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04980838008559319</v>
+        <v>0.03931845468052473</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>16</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1426554274.234937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4078787083.684816</v>
+        <v>3890701030.873068</v>
       </c>
       <c r="F17" t="n">
-        <v>0.129349593658277</v>
+        <v>0.1487979137461879</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04201070300684389</v>
+        <v>0.03321524885256875</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>33</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2039393572.515876</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2521978849.351596</v>
+        <v>3921191286.25117</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1779762984212933</v>
+        <v>0.1131595291207722</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03382285562788898</v>
+        <v>0.02565455891728145</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>37</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1260989489.483253</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1181547840.721245</v>
+        <v>951658542.9565573</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1476879438026187</v>
+        <v>0.1438025654066376</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01798600638353456</v>
+        <v>0.02565783166476661</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>590773993.7606285</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2409298970.475307</v>
+        <v>2498933517.70237</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1454033805262291</v>
+        <v>0.1350893609651742</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02709592794056115</v>
+        <v>0.02867746211271819</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>14</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1204649467.925924</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2303205596.633353</v>
+        <v>1665610359.728348</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08376882219486553</v>
+        <v>0.09962977243375655</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0288629537723416</v>
+        <v>0.04344243784508837</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>11</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1151602805.211658</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3363900528.315905</v>
+        <v>3780329618.482315</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1390411490331951</v>
+        <v>0.1347739775800479</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04770366856498066</v>
+        <v>0.05185707623531134</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>32</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1681950303.84022</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1001760415.259548</v>
+        <v>1026186734.681787</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1193511441553012</v>
+        <v>0.1674885491087053</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0399265115447336</v>
+        <v>0.03999610899588125</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>500880277.4537514</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3035331286.376103</v>
+        <v>3172040926.457675</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1413145490971218</v>
+        <v>0.1216561434094507</v>
       </c>
       <c r="G24" t="n">
-        <v>0.031734627165136</v>
+        <v>0.02452314590771112</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>33</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1517665676.00351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1234863901.54573</v>
+        <v>1332688559.526529</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1213074759367615</v>
+        <v>0.1170566656162259</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03033663692766168</v>
+        <v>0.01993668389105321</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>617431960.6648225</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1441332749.432777</v>
+        <v>1266739039.288613</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1105382956090431</v>
+        <v>0.08029842455869302</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02772886673360144</v>
+        <v>0.03858816853090181</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>720666454.8122118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3326348534.374737</v>
+        <v>3720344174.591186</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1402530815186371</v>
+        <v>0.1570377702642596</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01995250862717771</v>
+        <v>0.02726929502570101</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>26</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1663174310.718239</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3779661819.493066</v>
+        <v>3406912414.892426</v>
       </c>
       <c r="F28" t="n">
-        <v>0.135707261875064</v>
+        <v>0.1137759607440235</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03964349908594668</v>
+        <v>0.03594399666113476</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>36</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1889830988.569769</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4223915582.172205</v>
+        <v>5907691461.276689</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1486567774141738</v>
+        <v>0.121465141230212</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03975487989452089</v>
+        <v>0.04433488257999256</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>51</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2111957792.414936</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1759320988.874369</v>
+        <v>1767157915.424503</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09744119324560997</v>
+        <v>0.122454471899533</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03076391009214604</v>
+        <v>0.03332728233161373</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>879660504.4304595</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1487332261.996598</v>
+        <v>994221711.3887197</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1074953558088316</v>
+        <v>0.08355943335602405</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05094516412487285</v>
+        <v>0.03736656665745783</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>743666014.7701321</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1528225497.169774</v>
+        <v>1355855792.261909</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1165214186085334</v>
+        <v>0.09262283411350625</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03880210593959116</v>
+        <v>0.0247592822704914</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>764112822.6954907</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2130053864.698798</v>
+        <v>2753537434.819877</v>
       </c>
       <c r="F33" t="n">
-        <v>0.169767118373179</v>
+        <v>0.1667249487811012</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0392698090001462</v>
+        <v>0.04673847391621971</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>33</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1065027002.006393</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1059155273.949989</v>
+        <v>1478759039.878105</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1065024273807046</v>
+        <v>0.09528845126952981</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01839300211912147</v>
+        <v>0.02294041587579232</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>529577665.0545099</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>923181551.7197008</v>
+        <v>1065947563.420271</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07686442931964886</v>
+        <v>0.07266922718272988</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04289694906897595</v>
+        <v>0.03129838513813402</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>461590811.2292351</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2851718250.079589</v>
+        <v>2091231137.741787</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1190057355558034</v>
+        <v>0.1583628089774541</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01889384168360126</v>
+        <v>0.01783416755904434</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>29</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1425859118.776778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2566812446.889</v>
+        <v>2433727617.550695</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07061534457106056</v>
+        <v>0.08321517581226757</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03316715572288824</v>
+        <v>0.02993727478505335</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>30</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1283406328.636293</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2008459072.965729</v>
+        <v>1699153250.262255</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08533556952270319</v>
+        <v>0.08599414959344197</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0304918298755276</v>
+        <v>0.03956132701459393</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1004229513.857505</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1524360561.254527</v>
+        <v>1710082364.92713</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1439802275367325</v>
+        <v>0.1242190333932625</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02196903098045631</v>
+        <v>0.0310352420805732</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>762180347.3077302</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1294802473.678731</v>
+        <v>1338713343.898032</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1180973431081919</v>
+        <v>0.1197714898505149</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05213567580878507</v>
+        <v>0.04534021061035708</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>647401254.3470364</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2930510421.125768</v>
+        <v>2140914590.315145</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1638233047786199</v>
+        <v>0.1586287053987414</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03677883837372158</v>
+        <v>0.04541725997635842</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>27</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1465255193.615111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4019973805.6858</v>
+        <v>3154298569.411724</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08757689510255681</v>
+        <v>0.1203255889796083</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04337817958670124</v>
+        <v>0.04557088826185525</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>40</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2009986933.43243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2755291673.359763</v>
+        <v>1863589160.947161</v>
       </c>
       <c r="F43" t="n">
-        <v>0.148467998132896</v>
+        <v>0.1674193391623327</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01594913586910353</v>
+        <v>0.02418621582229407</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>37</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1377645859.629713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2230230414.016467</v>
+        <v>2192786571.284156</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0756357537899513</v>
+        <v>0.07918984636371493</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02655861491026255</v>
+        <v>0.03214907310985233</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1115115359.226405</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2347400200.613034</v>
+        <v>2382391115.921149</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1800933020451108</v>
+        <v>0.1938612882739213</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04090024218306156</v>
+        <v>0.04403157275338621</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1173700126.117874</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4288047291.838192</v>
+        <v>5718839077.984362</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1640065869034852</v>
+        <v>0.138432233699662</v>
       </c>
       <c r="G46" t="n">
-        <v>0.040199776307658</v>
+        <v>0.04376511727221087</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>41</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2144023631.925124</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3710461665.790816</v>
+        <v>4741090706.654522</v>
       </c>
       <c r="F47" t="n">
-        <v>0.122673992321294</v>
+        <v>0.1904437293186777</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04079191421795868</v>
+        <v>0.0481383412668931</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>31</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1855230815.597075</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3376380766.110835</v>
+        <v>4001644633.909898</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09047168546992634</v>
+        <v>0.07184082380668828</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03835455716790456</v>
+        <v>0.03217526751424647</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>37</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1688190453.592623</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1622025082.645989</v>
+        <v>1486288598.71714</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1442990264021901</v>
+        <v>0.1215210455306364</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0404304979085964</v>
+        <v>0.0435565852322272</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>811012554.3244419</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4023383176.043719</v>
+        <v>4161181667.102578</v>
       </c>
       <c r="F50" t="n">
-        <v>0.150245781375251</v>
+        <v>0.1375713522169152</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05210825439990249</v>
+        <v>0.04659842624781569</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>39</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2011691575.003275</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1195690460.873163</v>
+        <v>971141597.1389579</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1558147933106207</v>
+        <v>0.1315184626619217</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03738864354878181</v>
+        <v>0.03524188588454076</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>597845282.6419185</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3301201826.524918</v>
+        <v>5190906447.890304</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08910017545278388</v>
+        <v>0.1197732678003152</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05120924917394602</v>
+        <v>0.05898519091618652</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>47</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1650601010.816085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3615912300.812348</v>
+        <v>2918143664.565202</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1923119619431468</v>
+        <v>0.1924401520897471</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0334207241114505</v>
+        <v>0.0248091597675063</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>33</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1807956140.256773</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4105930018.186842</v>
+        <v>3201942225.614696</v>
       </c>
       <c r="F54" t="n">
-        <v>0.158229232097698</v>
+        <v>0.1670694705165252</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04232429704290865</v>
+        <v>0.03281926932417446</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>38</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2052965081.431666</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3490759639.947357</v>
+        <v>3340480559.061041</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2195717009570102</v>
+        <v>0.1773339013519402</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02284678072213897</v>
+        <v>0.02435764079060343</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>32</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1745379772.332913</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1335563676.502064</v>
+        <v>1622777115.89173</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1628529013888146</v>
+        <v>0.1459645314177561</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03510260312945599</v>
+        <v>0.04796427944009125</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>667781904.8357567</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4201672884.882352</v>
+        <v>4079828746.902164</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1553158629393804</v>
+        <v>0.1693074774127187</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01957561958940326</v>
+        <v>0.02759173512609599</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>37</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2100836547.680409</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1599211230.977644</v>
+        <v>1338128326.830812</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1422891251193822</v>
+        <v>0.1450587805748483</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02989422978841445</v>
+        <v>0.02560647897837854</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>799605637.5074524</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4657309506.86536</v>
+        <v>3985227482.982358</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1058781589340272</v>
+        <v>0.1097821068719762</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03872316811207945</v>
+        <v>0.03632120763028853</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>32</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2328654697.633094</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3684341941.826307</v>
+        <v>3246980666.705582</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1709124152068784</v>
+        <v>0.1706029045332762</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02057855803279044</v>
+        <v>0.02656168534958065</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>35</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1842171112.971168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2689033718.250221</v>
+        <v>2297500591.801748</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1545605170822247</v>
+        <v>0.1236606463619738</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02696343971571831</v>
+        <v>0.02306160277248539</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>40</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1344516868.858524</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1500299609.925405</v>
+        <v>1438802762.714751</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1313311450855028</v>
+        <v>0.1355122531429916</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04018949548754772</v>
+        <v>0.04160071959111564</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>750149788.0034219</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3923577594.79391</v>
+        <v>3566146435.779591</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06633163763472498</v>
+        <v>0.06733574565372026</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04460965985592467</v>
+        <v>0.03873435411200828</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>32</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1961788863.119356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3910363906.410738</v>
+        <v>4735039747.473909</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1404652040596991</v>
+        <v>0.1646270438465408</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03260992934829416</v>
+        <v>0.02371387624363933</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>36</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1955181982.690583</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4856256388.412416</v>
+        <v>5476038879.472712</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1304133711588862</v>
+        <v>0.1347949115782539</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02283617653580341</v>
+        <v>0.02915149016796873</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>41</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2428128161.619169</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4370812638.04425</v>
+        <v>5451119867.126587</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1058418508688275</v>
+        <v>0.1482442276556395</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03110114816638018</v>
+        <v>0.03807374714564288</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>33</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2185406312.441322</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2441100555.003629</v>
+        <v>2305374097.570034</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08883272290891624</v>
+        <v>0.07943316342293637</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04270339025067216</v>
+        <v>0.04122769307252917</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>37</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1220550343.045992</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4016363512.857672</v>
+        <v>3683221057.024074</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1269773044954234</v>
+        <v>0.141984496915183</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0319514474296455</v>
+        <v>0.05052817065641265</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>36</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2008181753.168374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1727443269.63524</v>
+        <v>2217415730.789126</v>
       </c>
       <c r="F69" t="n">
-        <v>0.172041985778021</v>
+        <v>0.1284394879666901</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03948941995490481</v>
+        <v>0.05309934497913014</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>863721604.4741164</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2397085597.722944</v>
+        <v>2576183234.933633</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0671088451653792</v>
+        <v>0.09361642505366086</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04015419302280809</v>
+        <v>0.04890679816502658</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>33</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1198542736.574448</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5559049906.97973</v>
+        <v>4448244779.330946</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1188448233790146</v>
+        <v>0.1747661970577575</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0314476207294328</v>
+        <v>0.02980535758627212</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>42</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2779525100.856959</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1428578706.007504</v>
+        <v>1932456731.22981</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08780721577457282</v>
+        <v>0.09240383936618957</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05181650754038743</v>
+        <v>0.03468928446966105</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>714289391.4503018</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2572090490.977257</v>
+        <v>2284328792.864536</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08450362638529414</v>
+        <v>0.1038722592941872</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04369573875760614</v>
+        <v>0.05268550511546254</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>44</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1286045280.581282</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3786844834.58696</v>
+        <v>3784556021.519629</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1188141655903288</v>
+        <v>0.1423885551406206</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03116930111331772</v>
+        <v>0.02159870126487508</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>39</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1893422414.635101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2469108745.392788</v>
+        <v>2279270745.851274</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1518126064632196</v>
+        <v>0.1146856916035665</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03300366694028502</v>
+        <v>0.03770725940517226</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1234554292.826432</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4257068639.220581</v>
+        <v>4602492135.446047</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1012325296972489</v>
+        <v>0.09425413982474301</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03249147962142992</v>
+        <v>0.02376142268415969</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>25</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2128534315.073802</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1636890951.659539</v>
+        <v>2153897672.059262</v>
       </c>
       <c r="F77" t="n">
-        <v>0.117547055130567</v>
+        <v>0.1821098677862029</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0275634328597435</v>
+        <v>0.0312278816256747</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>818445483.7076176</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3560094520.052863</v>
+        <v>3599597677.661383</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1229570457458849</v>
+        <v>0.1297736191918479</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03953102832892528</v>
+        <v>0.03869315697639211</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>41</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1780047257.182398</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1582060811.611259</v>
+        <v>1531012296.680123</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1759397396943933</v>
+        <v>0.1773940617259692</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03791078389860639</v>
+        <v>0.0298835706332403</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>791030454.3261778</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5502777050.222559</v>
+        <v>3702515615.278216</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08084298871486496</v>
+        <v>0.07174300059688359</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03145116478893779</v>
+        <v>0.02748327802546436</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>24</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2751388599.244864</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5135918672.08022</v>
+        <v>3560288458.535226</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0962333338571611</v>
+        <v>0.1319741831957879</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03065042902661258</v>
+        <v>0.03221122340852913</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>27</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2567959341.391957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3533470814.49381</v>
+        <v>4076559099.145803</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2005327835408426</v>
+        <v>0.1419030910531097</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02684167763901093</v>
+        <v>0.02183859377780724</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>41</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1766735472.945807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2341102682.741774</v>
+        <v>2378259322.831237</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09865170495669151</v>
+        <v>0.1399429699467496</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03197694664553816</v>
+        <v>0.03895060489788806</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1170551369.100014</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2389328577.105846</v>
+        <v>1955347476.891624</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1136318593446905</v>
+        <v>0.1194368282809476</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05078799847043245</v>
+        <v>0.03834555820735584</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1194664236.483617</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3263052535.139262</v>
+        <v>2658924824.906449</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1645054404694146</v>
+        <v>0.1564755117488189</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03864542044902162</v>
+        <v>0.03663424627551903</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>43</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1631526356.698439</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2158347311.094473</v>
+        <v>2162907991.619389</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1166823121653019</v>
+        <v>0.1203926462347963</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01665220974863499</v>
+        <v>0.02015941165795691</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1079173705.148311</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>984917210.5210054</v>
+        <v>1357371580.827783</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1424275714374685</v>
+        <v>0.1572633271697014</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03324948999344134</v>
+        <v>0.03181516105410746</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>492458605.6428111</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3239744953.29877</v>
+        <v>2299551651.127877</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1119108193421771</v>
+        <v>0.1265441569572251</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03044202560539211</v>
+        <v>0.0314441685743623</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>45</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1619872530.731348</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2737572393.717309</v>
+        <v>2361425953.192372</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1077316821520626</v>
+        <v>0.1427688213133989</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02998721174168161</v>
+        <v>0.03560419803715136</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>39</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1368786254.144529</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1656633272.124187</v>
+        <v>2146371156.237381</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08732032512037192</v>
+        <v>0.1298231361783141</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05265304591691551</v>
+        <v>0.03652466020017734</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>828316643.4327953</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1428433371.441036</v>
+        <v>2093539570.940072</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1645818219854192</v>
+        <v>0.1730717392281542</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05483656486107603</v>
+        <v>0.05478584667522797</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>714216734.1245747</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2901800759.324873</v>
+        <v>1865468924.332719</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1042167772600382</v>
+        <v>0.1066868527786766</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03309168319197497</v>
+        <v>0.03649291435526061</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>26</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1450900393.913447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3917265590.321102</v>
+        <v>4868108284.982942</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1372606844663215</v>
+        <v>0.1398953090673451</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04030639586434667</v>
+        <v>0.03755028239193855</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>34</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1958632801.09116</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2438537393.287531</v>
+        <v>2229907381.455432</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1361957072609316</v>
+        <v>0.1542398663901371</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04153585386725128</v>
+        <v>0.03185388423742439</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1219268752.028959</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2843587093.853692</v>
+        <v>2754281462.405822</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08371998825708787</v>
+        <v>0.1095690737176361</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04567061464078713</v>
+        <v>0.04331377988754986</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>26</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1421793557.966542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1924896694.000979</v>
+        <v>1768862789.77179</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08641739755308794</v>
+        <v>0.08695567008636694</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03769138159618341</v>
+        <v>0.03434555792929424</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>962448341.9466048</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4434188134.974702</v>
+        <v>4990463087.493277</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1262304523199752</v>
+        <v>0.1709796152581122</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02297830424293631</v>
+        <v>0.02743992747900518</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>38</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2217094158.728398</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2450502845.094774</v>
+        <v>2890299703.284415</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09077447902916697</v>
+        <v>0.1116125986592797</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02094928615855094</v>
+        <v>0.02267707174669627</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>30</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1225251369.935958</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2608838033.154256</v>
+        <v>2857291040.462921</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1476616799984705</v>
+        <v>0.09045604057118257</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03422122642163199</v>
+        <v>0.02169545083061599</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>36</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1304418974.152197</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3279097765.329217</v>
+        <v>3014145384.316136</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1618710046828111</v>
+        <v>0.1124632509794034</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01942362356769791</v>
+        <v>0.02101578910991821</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>35</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1639548895.729484</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2986262130.394287</v>
+        <v>2270995146.607461</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1759731699806409</v>
+        <v>0.191758570905029</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03642426355519865</v>
+        <v>0.03629235261236127</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>48</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1493131152.386373</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_114.xlsx
+++ b/output/fit_clients/fit_round_114.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1735542255.598475</v>
+        <v>1986346462.694437</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1132973156916664</v>
+        <v>0.1121986638226612</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04182522977449465</v>
+        <v>0.02831240829611394</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1666265998.399612</v>
+        <v>1865675510.826602</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1620938299389768</v>
+        <v>0.171251702764016</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04726552883035549</v>
+        <v>0.03846391819007973</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3594672314.396866</v>
+        <v>3811997151.718987</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1628984260090108</v>
+        <v>0.127786151634593</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02652202882784759</v>
+        <v>0.03828088917732054</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3730695961.212239</v>
+        <v>2891269705.558395</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08876656285306382</v>
+        <v>0.08439890833113814</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04129106329094727</v>
+        <v>0.03275910592145381</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2180844898.732833</v>
+        <v>2088418123.387271</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1318823788528199</v>
+        <v>0.1296361287091316</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05570733781823808</v>
+        <v>0.05219275742725609</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3066824484.147253</v>
+        <v>2540810688.051462</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09576710480947501</v>
+        <v>0.07569987687526294</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03590133185481864</v>
+        <v>0.03266863820854134</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3363008702.147041</v>
+        <v>2507521048.903801</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1868785958152126</v>
+        <v>0.1351780152637608</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02485289155198745</v>
+        <v>0.02250582722970158</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2186759417.269583</v>
+        <v>1921131370.341139</v>
       </c>
       <c r="F9" t="n">
-        <v>0.150954282811375</v>
+        <v>0.1498075889889154</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03079349247823867</v>
+        <v>0.02721741228105082</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4254441400.498759</v>
+        <v>3781319964.405217</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1639292477201227</v>
+        <v>0.1499701306694265</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03861469142980149</v>
+        <v>0.0387046574682226</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3479529052.859199</v>
+        <v>3412413691.860861</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1193101293007224</v>
+        <v>0.1753197116409488</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04250012843224887</v>
+        <v>0.03061907513916029</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2404567943.382573</v>
+        <v>2348898561.246199</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1913444028794196</v>
+        <v>0.1441045416641321</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04549142520779451</v>
+        <v>0.05024788318914387</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4936362099.729409</v>
+        <v>5279461445.474795</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07738726046753545</v>
+        <v>0.06961387147050477</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02682531831803597</v>
+        <v>0.03134091085764577</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2380394808.938267</v>
+        <v>3510287389.669005</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1503702543064358</v>
+        <v>0.1780411010531064</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02862090511343858</v>
+        <v>0.03724074288138139</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1554664403.628147</v>
+        <v>1703312751.565312</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08027373474001162</v>
+        <v>0.07384790312693568</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0327869310557227</v>
+        <v>0.04193853209958288</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2265083141.500918</v>
+        <v>1950919380.138813</v>
       </c>
       <c r="F16" t="n">
-        <v>0.105748286894263</v>
+        <v>0.09827084608880714</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03931845468052473</v>
+        <v>0.03194736150016239</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3890701030.873068</v>
+        <v>3439635611.170797</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1487979137461879</v>
+        <v>0.1569740832383543</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03321524885256875</v>
+        <v>0.05184928653096135</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3921191286.25117</v>
+        <v>3803875008.890668</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1131595291207722</v>
+        <v>0.1342074356353539</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02565455891728145</v>
+        <v>0.02830748930159243</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>951658542.9565573</v>
+        <v>939701493.950367</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1438025654066376</v>
+        <v>0.155624007920562</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02565783166476661</v>
+        <v>0.02680005044673355</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2498933517.70237</v>
+        <v>1976139783.490294</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1350893609651742</v>
+        <v>0.1392451308721109</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02867746211271819</v>
+        <v>0.02189528830552639</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1665610359.728348</v>
+        <v>2216246319.516151</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09962977243375655</v>
+        <v>0.08795436191930323</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04344243784508837</v>
+        <v>0.03943040842153607</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3780329618.482315</v>
+        <v>3808990762.133906</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1347739775800479</v>
+        <v>0.09953596640194791</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05185707623531134</v>
+        <v>0.04210501503484554</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1026186734.681787</v>
+        <v>1345465936.081738</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1674885491087053</v>
+        <v>0.1478416109367268</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03999610899588125</v>
+        <v>0.04220871363219791</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3172040926.457675</v>
+        <v>3482542669.889939</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1216561434094507</v>
+        <v>0.1022169748061916</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02452314590771112</v>
+        <v>0.0342978001027872</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,16 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1332688559.526529</v>
+        <v>1157177186.303187</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1170566656162259</v>
+        <v>0.08235981561610801</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01993668389105321</v>
+        <v>0.03025146103695496</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1266739039.288613</v>
+        <v>1088572137.414839</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08029842455869302</v>
+        <v>0.07544439168038319</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03858816853090181</v>
+        <v>0.03011588589729234</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3720344174.591186</v>
+        <v>3059080269.082463</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1570377702642596</v>
+        <v>0.09553895725906822</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02726929502570101</v>
+        <v>0.02116202708797203</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3406912414.892426</v>
+        <v>2619217426.768815</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1137759607440235</v>
+        <v>0.1280717105616961</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03594399666113476</v>
+        <v>0.04434864343592188</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5907691461.276689</v>
+        <v>4957983559.777105</v>
       </c>
       <c r="F29" t="n">
-        <v>0.121465141230212</v>
+        <v>0.09169544614136628</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04433488257999256</v>
+        <v>0.03422982072775679</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1767157915.424503</v>
+        <v>2149539744.720255</v>
       </c>
       <c r="F30" t="n">
-        <v>0.122454471899533</v>
+        <v>0.1148026141012014</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03332728233161373</v>
+        <v>0.03332611185485264</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>994221711.3887197</v>
+        <v>1449149284.847316</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08355943335602405</v>
+        <v>0.1067912320443098</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03736656665745783</v>
+        <v>0.04484719045529992</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1355855792.261909</v>
+        <v>1540418182.537847</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09262283411350625</v>
+        <v>0.08606495279440272</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0247592822704914</v>
+        <v>0.02485172256859335</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2753537434.819877</v>
+        <v>3083232288.983039</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1667249487811012</v>
+        <v>0.2051242113436621</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04673847391621971</v>
+        <v>0.03767438601759043</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1478759039.878105</v>
+        <v>1458851478.798422</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09528845126952981</v>
+        <v>0.08501039938476818</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02294041587579232</v>
+        <v>0.0185994830860935</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1065947563.420271</v>
+        <v>1168465517.012767</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07266922718272988</v>
+        <v>0.08134542283187807</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03129838513813402</v>
+        <v>0.02755012608676055</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2091231137.741787</v>
+        <v>2321988794.617756</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1583628089774541</v>
+        <v>0.1680491314407057</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01783416755904434</v>
+        <v>0.02651383884431494</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2433727617.550695</v>
+        <v>2836636498.929768</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08321517581226757</v>
+        <v>0.1026311468064027</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02993727478505335</v>
+        <v>0.03611654089747267</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1699153250.262255</v>
+        <v>1739532474.211083</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08599414959344197</v>
+        <v>0.07421689749716126</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03956132701459393</v>
+        <v>0.03028017436233016</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1710082364.92713</v>
+        <v>1345534166.709123</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1242190333932625</v>
+        <v>0.1527435102439623</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0310352420805732</v>
+        <v>0.02415924607850207</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1338713343.898032</v>
+        <v>1427384041.481379</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1197714898505149</v>
+        <v>0.1491326559439632</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04534021061035708</v>
+        <v>0.05146593664957159</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2140914590.315145</v>
+        <v>2567899895.820917</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1586287053987414</v>
+        <v>0.1387903976847054</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04541725997635842</v>
+        <v>0.03479303716159779</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3154298569.411724</v>
+        <v>4235337841.767404</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1203255889796083</v>
+        <v>0.1083766352684098</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04557088826185525</v>
+        <v>0.04110497466248129</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1863589160.947161</v>
+        <v>1935806038.629622</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1674193391623327</v>
+        <v>0.1603957364252591</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02418621582229407</v>
+        <v>0.01617026951301163</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2192786571.284156</v>
+        <v>1736334163.080893</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07918984636371493</v>
+        <v>0.08752082217635161</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03214907310985233</v>
+        <v>0.02251547489063336</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2382391115.921149</v>
+        <v>1999078574.822036</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1938612882739213</v>
+        <v>0.1346640147990252</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04403157275338621</v>
+        <v>0.04632166813544965</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5718839077.984362</v>
+        <v>5721586963.87567</v>
       </c>
       <c r="F46" t="n">
-        <v>0.138432233699662</v>
+        <v>0.1236871140412102</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04376511727221087</v>
+        <v>0.04468250212395805</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,13 +1746,13 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4741090706.654522</v>
+        <v>4471710072.262138</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1904437293186777</v>
+        <v>0.2009819761874837</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0481383412668931</v>
+        <v>0.05952921166877399</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4001644633.909898</v>
+        <v>3156499098.084572</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07184082380668828</v>
+        <v>0.07585209073364124</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03217526751424647</v>
+        <v>0.03864775104746114</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,16 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1486288598.71714</v>
+        <v>1471326850.095908</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1215210455306364</v>
+        <v>0.1919240880340847</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0435565852322272</v>
+        <v>0.03204597957062042</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4161181667.102578</v>
+        <v>3595682200.558736</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1375713522169152</v>
+        <v>0.1556924636503019</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04659842624781569</v>
+        <v>0.03474397001157716</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>971141597.1389579</v>
+        <v>986234339.2570519</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1315184626619217</v>
+        <v>0.1873002806732924</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03524188588454076</v>
+        <v>0.05236065613533927</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5190906447.890304</v>
+        <v>3559623429.04793</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1197732678003152</v>
+        <v>0.1039832739547739</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05898519091618652</v>
+        <v>0.04142303065319466</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2918143664.565202</v>
+        <v>3736299367.894924</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1924401520897471</v>
+        <v>0.1372573498919235</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0248091597675063</v>
+        <v>0.02835867692432314</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3201942225.614696</v>
+        <v>3595985730.843665</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1670694705165252</v>
+        <v>0.1276549638985987</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03281926932417446</v>
+        <v>0.04893236947800501</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3340480559.061041</v>
+        <v>4428675440.324885</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1773339013519402</v>
+        <v>0.2129009887067583</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02435764079060343</v>
+        <v>0.03011880829272168</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1622777115.89173</v>
+        <v>1763116513.320085</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1459645314177561</v>
+        <v>0.1450934163774004</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04796427944009125</v>
+        <v>0.04964567644176882</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4079828746.902164</v>
+        <v>2859744496.532237</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1693074774127187</v>
+        <v>0.1565509804187679</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02759173512609599</v>
+        <v>0.02073748404622474</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1338128326.830812</v>
+        <v>1503629657.259513</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1450587805748483</v>
+        <v>0.1704271928234145</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02560647897837854</v>
+        <v>0.03129427938438521</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3985227482.982358</v>
+        <v>3905493385.851974</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1097821068719762</v>
+        <v>0.1078676827417557</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03632120763028853</v>
+        <v>0.04906981794354907</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3246980666.705582</v>
+        <v>2803936095.896946</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1706029045332762</v>
+        <v>0.1526620130108675</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02656168534958065</v>
+        <v>0.02508907806713463</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2297500591.801748</v>
+        <v>2443537664.656842</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1236606463619738</v>
+        <v>0.1733963695810205</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02306160277248539</v>
+        <v>0.03095463894233859</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1438802762.714751</v>
+        <v>1802594588.413773</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1355122531429916</v>
+        <v>0.1323655153081206</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04160071959111564</v>
+        <v>0.04261486904391216</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3566146435.779591</v>
+        <v>3584328175.386551</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06733574565372026</v>
+        <v>0.1006070302803585</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03873435411200828</v>
+        <v>0.03128669979863924</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4735039747.473909</v>
+        <v>5129942415.927597</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1646270438465408</v>
+        <v>0.1726096819933215</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02371387624363933</v>
+        <v>0.03181388433345175</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5476038879.472712</v>
+        <v>4825875716.437049</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1347949115782539</v>
+        <v>0.1715196711754382</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02915149016796873</v>
+        <v>0.02653079660322053</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5451119867.126587</v>
+        <v>3981016413.74171</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1482442276556395</v>
+        <v>0.1157449530002424</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03807374714564288</v>
+        <v>0.03109369697949765</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2305374097.570034</v>
+        <v>3378076063.412052</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07943316342293637</v>
+        <v>0.06581290326936867</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04122769307252917</v>
+        <v>0.03825518783910872</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3683221057.024074</v>
+        <v>5415106633.443439</v>
       </c>
       <c r="F68" t="n">
-        <v>0.141984496915183</v>
+        <v>0.1438198171216087</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05052817065641265</v>
+        <v>0.04087360447256569</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2217415730.789126</v>
+        <v>2244276436.354416</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1284394879666901</v>
+        <v>0.1703024134100055</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05309934497913014</v>
+        <v>0.04173506652880908</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2576183234.933633</v>
+        <v>3346172164.983044</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09361642505366086</v>
+        <v>0.06446309629471751</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04890679816502658</v>
+        <v>0.03038615062133971</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4448244779.330946</v>
+        <v>4207609771.229448</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1747661970577575</v>
+        <v>0.1527512790216365</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02980535758627212</v>
+        <v>0.0294549924540292</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1932456731.22981</v>
+        <v>1782123928.000329</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09240383936618957</v>
+        <v>0.1057870946576455</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03468928446966105</v>
+        <v>0.05173435134945571</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2284328792.864536</v>
+        <v>2582227465.928347</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1038722592941872</v>
+        <v>0.07330336173567059</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05268550511546254</v>
+        <v>0.04911945211687593</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3784556021.519629</v>
+        <v>3361133686.515234</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1423885551406206</v>
+        <v>0.140292208540236</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02159870126487508</v>
+        <v>0.03222001813268511</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2279270745.851274</v>
+        <v>2014543128.954701</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1146856916035665</v>
+        <v>0.124991405065854</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03770725940517226</v>
+        <v>0.02480629175487446</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4602492135.446047</v>
+        <v>3595492027.377856</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09425413982474301</v>
+        <v>0.1114641091512334</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02376142268415969</v>
+        <v>0.03362550653969228</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2153897672.059262</v>
+        <v>1758463602.544126</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1821098677862029</v>
+        <v>0.1867183346654357</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0312278816256747</v>
+        <v>0.02814662512736724</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3599597677.661383</v>
+        <v>4162510039.941079</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1297736191918479</v>
+        <v>0.1157264548143733</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03869315697639211</v>
+        <v>0.04333080092232171</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1531012296.680123</v>
+        <v>1529833968.327024</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1773940617259692</v>
+        <v>0.1350119314723713</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0298835706332403</v>
+        <v>0.02894621195376224</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3702515615.278216</v>
+        <v>4551197000.471705</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07174300059688359</v>
+        <v>0.1038641772408655</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02748327802546436</v>
+        <v>0.03873241986217194</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3560288458.535226</v>
+        <v>3687591676.628481</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1319741831957879</v>
+        <v>0.1077792431399037</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03221122340852913</v>
+        <v>0.02179512895461741</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4076559099.145803</v>
+        <v>4633116195.445157</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1419030910531097</v>
+        <v>0.1766331022513878</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02183859377780724</v>
+        <v>0.01952098911506217</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2378259322.831237</v>
+        <v>1961165759.825146</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1399429699467496</v>
+        <v>0.1124591404479813</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03895060489788806</v>
+        <v>0.04407798086858254</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1955347476.891624</v>
+        <v>1666098325.832744</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1194368282809476</v>
+        <v>0.09966447643582227</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03834555820735584</v>
+        <v>0.04463886696770169</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2658924824.906449</v>
+        <v>2992726329.330857</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1564755117488189</v>
+        <v>0.1356152858432668</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03663424627551903</v>
+        <v>0.05501345516572909</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2162907991.619389</v>
+        <v>2613304235.498389</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1203926462347963</v>
+        <v>0.1583287587112909</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02015941165795691</v>
+        <v>0.0225040684984726</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1357371580.827783</v>
+        <v>1478258064.49384</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1572633271697014</v>
+        <v>0.1613439356071943</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03181516105410746</v>
+        <v>0.03698325551479956</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2299551651.127877</v>
+        <v>3453369582.984511</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1265441569572251</v>
+        <v>0.1511181141015263</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0314441685743623</v>
+        <v>0.03357138316892981</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2361425953.192372</v>
+        <v>3301657409.193649</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1427688213133989</v>
+        <v>0.1602259748011956</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03560419803715136</v>
+        <v>0.03093906836210357</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2146371156.237381</v>
+        <v>1545231765.084538</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1298231361783141</v>
+        <v>0.1202297083219611</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03652466020017734</v>
+        <v>0.05136087349239659</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2093539570.940072</v>
+        <v>1935725487.720791</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1730717392281542</v>
+        <v>0.1397829983485819</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05478584667522797</v>
+        <v>0.04068744300671932</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1865468924.332719</v>
+        <v>2627354266.765493</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1066868527786766</v>
+        <v>0.06673388350155153</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03649291435526061</v>
+        <v>0.03143921377531927</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4868108284.982942</v>
+        <v>4183732339.406844</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1398953090673451</v>
+        <v>0.1279287618445546</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03755028239193855</v>
+        <v>0.04877276537803242</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2229907381.455432</v>
+        <v>1760378889.296627</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1542398663901371</v>
+        <v>0.1112629851178613</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03185388423742439</v>
+        <v>0.02969589381911962</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2754281462.405822</v>
+        <v>3090393340.413475</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1095690737176361</v>
+        <v>0.1343767400987877</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04331377988754986</v>
+        <v>0.03482880163593192</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1768862789.77179</v>
+        <v>1478315035.949254</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08695567008636694</v>
+        <v>0.1130144189987536</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03434555792929424</v>
+        <v>0.03980977641280463</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4990463087.493277</v>
+        <v>4329737732.811196</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1709796152581122</v>
+        <v>0.1768655919463556</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02743992747900518</v>
+        <v>0.02263210750869774</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2890299703.284415</v>
+        <v>2544578884.438334</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1116125986592797</v>
+        <v>0.1191452976792805</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02267707174669627</v>
+        <v>0.03226728491849673</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2857291040.462921</v>
+        <v>2259318039.153068</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09045604057118257</v>
+        <v>0.1213433201616877</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02169545083061599</v>
+        <v>0.03045619704743784</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3014145384.316136</v>
+        <v>3219903029.631289</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1124632509794034</v>
+        <v>0.1549871792363409</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02101578910991821</v>
+        <v>0.01913737229913306</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2270995146.607461</v>
+        <v>2495088390.097845</v>
       </c>
       <c r="F101" t="n">
-        <v>0.191758570905029</v>
+        <v>0.1958251223851258</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03629235261236127</v>
+        <v>0.05053095631251023</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_114.xlsx
+++ b/output/fit_clients/fit_round_114.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1986346462.694437</v>
+        <v>2132452753.668868</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1121986638226612</v>
+        <v>0.1018958631879328</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02831240829611394</v>
+        <v>0.03804150636814865</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1865675510.826602</v>
+        <v>2638188726.342047</v>
       </c>
       <c r="F3" t="n">
-        <v>0.171251702764016</v>
+        <v>0.1483836951347208</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03846391819007973</v>
+        <v>0.03194232359457843</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3811997151.718987</v>
+        <v>3761472602.360006</v>
       </c>
       <c r="F4" t="n">
-        <v>0.127786151634593</v>
+        <v>0.1430319219552267</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03828088917732054</v>
+        <v>0.02830952063577667</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>69</v>
+      </c>
+      <c r="J4" t="n">
+        <v>114</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2891269705.558395</v>
+        <v>3404282217.150243</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08439890833113814</v>
+        <v>0.07158679691220073</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03275910592145381</v>
+        <v>0.03613567532004031</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>47</v>
+      </c>
+      <c r="J5" t="n">
+        <v>109</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2088418123.387271</v>
+        <v>2393761248.773394</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1296361287091316</v>
+        <v>0.1254407181882503</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05219275742725609</v>
+        <v>0.05507640684575459</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2540810688.051462</v>
+        <v>3087033496.765731</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07569987687526294</v>
+        <v>0.06435372892596578</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03266863820854134</v>
+        <v>0.03962439688418423</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2507521048.903801</v>
+        <v>3983647169.442071</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1351780152637608</v>
+        <v>0.212919324732159</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02250582722970158</v>
+        <v>0.03241538435311599</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>32</v>
+      </c>
+      <c r="J8" t="n">
+        <v>114</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1921131370.341139</v>
+        <v>2024270519.469413</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1498075889889154</v>
+        <v>0.1702273974019057</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02721741228105082</v>
+        <v>0.02684646047212675</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3781319964.405217</v>
+        <v>4777530233.563177</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1499701306694265</v>
+        <v>0.1364352829103824</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0387046574682226</v>
+        <v>0.04833345778627015</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>105</v>
+      </c>
+      <c r="J10" t="n">
+        <v>114</v>
+      </c>
+      <c r="K10" t="n">
+        <v>170.0049040721535</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3412413691.860861</v>
+        <v>3455885869.415546</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1753197116409488</v>
+        <v>0.1387737552452105</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03061907513916029</v>
+        <v>0.04228493809474685</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>47</v>
+      </c>
+      <c r="J11" t="n">
+        <v>111</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +853,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2348898561.246199</v>
+        <v>2669298933.885667</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1441045416641321</v>
+        <v>0.148627983057061</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05024788318914387</v>
+        <v>0.03527448816828916</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5279461445.474795</v>
+        <v>3683483822.933647</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06961387147050477</v>
+        <v>0.07569883135149287</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03134091085764577</v>
+        <v>0.02112546825121393</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>57</v>
+      </c>
+      <c r="J13" t="n">
+        <v>113</v>
+      </c>
+      <c r="K13" t="n">
+        <v>120.6500051820698</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +925,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3510287389.669005</v>
+        <v>2804186643.496706</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1780411010531064</v>
+        <v>0.1457763821833237</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03724074288138139</v>
+        <v>0.03209182033071119</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>104</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1703312751.565312</v>
+        <v>1585190833.538909</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07384790312693568</v>
+        <v>0.09820807031501075</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04193853209958288</v>
+        <v>0.03196783780417684</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1950919380.138813</v>
+        <v>1926294920.11648</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09827084608880714</v>
+        <v>0.08802926962123497</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03194736150016239</v>
+        <v>0.04179767151640218</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3439635611.170797</v>
+        <v>4562060382.911817</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1569740832383543</v>
+        <v>0.1585949610838562</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05184928653096135</v>
+        <v>0.03615372336967618</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>55</v>
+      </c>
+      <c r="J17" t="n">
+        <v>113</v>
+      </c>
+      <c r="K17" t="n">
+        <v>137.1401007006035</v>
       </c>
     </row>
     <row r="18">
@@ -934,16 +1067,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3803875008.890668</v>
+        <v>3952601605.910994</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1342074356353539</v>
+        <v>0.1812409768979371</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02830748930159243</v>
+        <v>0.03161738333876841</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>30</v>
+      </c>
+      <c r="J18" t="n">
+        <v>113</v>
+      </c>
+      <c r="K18" t="n">
+        <v>136.9017053230549</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>939701493.950367</v>
+        <v>1003120374.779147</v>
       </c>
       <c r="F19" t="n">
-        <v>0.155624007920562</v>
+        <v>0.1493199643668384</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02680005044673355</v>
+        <v>0.02401782681649395</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1976139783.490294</v>
+        <v>2385525215.451891</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1392451308721109</v>
+        <v>0.1370484560706133</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02189528830552639</v>
+        <v>0.02380442244315182</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2216246319.516151</v>
+        <v>2400686085.357413</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08795436191930323</v>
+        <v>0.06737674118495376</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03943040842153607</v>
+        <v>0.04440628720771901</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1209,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3808990762.133906</v>
+        <v>2670201691.931995</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09953596640194791</v>
+        <v>0.09132798265347913</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04210501503484554</v>
+        <v>0.05101885622577316</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>29</v>
+      </c>
+      <c r="J22" t="n">
+        <v>113</v>
+      </c>
+      <c r="K22" t="n">
+        <v>59.53108273167578</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1345465936.081738</v>
+        <v>957319662.964241</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1478416109367268</v>
+        <v>0.1704408918519167</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04220871363219791</v>
+        <v>0.04895440068793668</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1275,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3482542669.889939</v>
+        <v>4103393406.16094</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1022169748061916</v>
+        <v>0.1020598677276942</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0342978001027872</v>
+        <v>0.02372226184887477</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>35</v>
+      </c>
+      <c r="J24" t="n">
+        <v>113</v>
+      </c>
+      <c r="K24" t="n">
+        <v>141.000244328865</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1157177186.303187</v>
+        <v>1217086872.797236</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08235981561610801</v>
+        <v>0.1098416685069749</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03025146103695496</v>
+        <v>0.02967469824144517</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1088572137.414839</v>
+        <v>1426383862.035604</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07544439168038319</v>
+        <v>0.07814724506314791</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03011588589729234</v>
+        <v>0.02372491446218076</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3059080269.082463</v>
+        <v>3599372414.948936</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09553895725906822</v>
+        <v>0.1202507851964345</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02116202708797203</v>
+        <v>0.01658477454318391</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>45</v>
+      </c>
+      <c r="J27" t="n">
+        <v>113</v>
+      </c>
+      <c r="K27" t="n">
+        <v>99.55292228957097</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1419,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2619217426.768815</v>
+        <v>2818904612.898808</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1280717105616961</v>
+        <v>0.09299584065730353</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04434864343592188</v>
+        <v>0.03609324919213386</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+      <c r="J28" t="n">
+        <v>113</v>
+      </c>
+      <c r="K28" t="n">
+        <v>71.8214060104274</v>
       </c>
     </row>
     <row r="29">
@@ -1242,17 +1462,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4957983559.777105</v>
+        <v>5050356608.034575</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09169544614136628</v>
+        <v>0.1280469974040312</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03422982072775679</v>
+        <v>0.03716682497667255</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>105</v>
+      </c>
+      <c r="J29" t="n">
+        <v>114</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2149539744.720255</v>
+        <v>2384673874.775036</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1148026141012014</v>
+        <v>0.1120707733309263</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03332611185485264</v>
+        <v>0.02764260054891221</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1449149284.847316</v>
+        <v>1357537910.79677</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1067912320443098</v>
+        <v>0.0982485541525341</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04484719045529992</v>
+        <v>0.03964537947913276</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1567,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1540418182.537847</v>
+        <v>1234464170.608457</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08606495279440272</v>
+        <v>0.09726886806143899</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02485172256859335</v>
+        <v>0.02778310958856825</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3083232288.983039</v>
+        <v>2802889901.783745</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2051242113436621</v>
+        <v>0.1316363500927976</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03767438601759043</v>
+        <v>0.06051463563412947</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1458851478.798422</v>
+        <v>1035625584.13754</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08501039938476818</v>
+        <v>0.07659361703945895</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0185994830860935</v>
+        <v>0.02509987569793001</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1672,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1168465517.012767</v>
+        <v>1174587310.649875</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08134542283187807</v>
+        <v>0.110881238947506</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02755012608676055</v>
+        <v>0.0298451895759915</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2321988794.617756</v>
+        <v>3075887651.492482</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1680491314407057</v>
+        <v>0.1535397362963116</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02651383884431494</v>
+        <v>0.02451192469074989</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2836636498.929768</v>
+        <v>2607755428.382934</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1026311468064027</v>
+        <v>0.09491543703818696</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03611654089747267</v>
+        <v>0.0370131377667177</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1739532474.211083</v>
+        <v>1541232937.644021</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07421689749716126</v>
+        <v>0.1099041317001491</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03028017436233016</v>
+        <v>0.03839015903255409</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1345534166.709123</v>
+        <v>1981013308.903986</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1527435102439623</v>
+        <v>0.1404296275922963</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02415924607850207</v>
+        <v>0.02238468078932349</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1847,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1427384041.481379</v>
+        <v>1183104374.215024</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1491326559439632</v>
+        <v>0.1049042835993851</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05146593664957159</v>
+        <v>0.03660946733723068</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2567899895.820917</v>
+        <v>2926371874.03333</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1387903976847054</v>
+        <v>0.1004361826474399</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03479303716159779</v>
+        <v>0.02934966461623195</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1911,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4235337841.767404</v>
+        <v>3898862532.879479</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1083766352684098</v>
+        <v>0.1204548198413997</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04110497466248129</v>
+        <v>0.04618279137283723</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>42</v>
+      </c>
+      <c r="J42" t="n">
+        <v>113</v>
+      </c>
+      <c r="K42" t="n">
+        <v>143.544399965951</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1948,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1935806038.629622</v>
+        <v>2655515544.531488</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1603957364252591</v>
+        <v>0.1355589518622046</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01617026951301163</v>
+        <v>0.01906384310835187</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1983,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1736334163.080893</v>
+        <v>1445161850.84221</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08752082217635161</v>
+        <v>0.09369492367930905</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02251547489063336</v>
+        <v>0.02918087159375709</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2018,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1999078574.822036</v>
+        <v>2471283639.779924</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1346640147990252</v>
+        <v>0.16805928681232</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04632166813544965</v>
+        <v>0.04170735222130551</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2053,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5721586963.87567</v>
+        <v>5427289127.850715</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1236871140412102</v>
+        <v>0.1173976801291529</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04468250212395805</v>
+        <v>0.05757982977909006</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>65</v>
+      </c>
+      <c r="J46" t="n">
+        <v>114</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2088,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4471710072.262138</v>
+        <v>4350484463.183778</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2009819761874837</v>
+        <v>0.1606149173700967</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05952921166877399</v>
+        <v>0.04914332889598302</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>50</v>
+      </c>
+      <c r="J47" t="n">
+        <v>114</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3156499098.084572</v>
+        <v>4239948599.116457</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07585209073364124</v>
+        <v>0.1064703678423212</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03864775104746114</v>
+        <v>0.03515245784020198</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>43</v>
+      </c>
+      <c r="J48" t="n">
+        <v>114</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1471326850.095908</v>
+        <v>1678581082.886326</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1919240880340847</v>
+        <v>0.1463710779392665</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03204597957062042</v>
+        <v>0.02769711779000573</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3595682200.558736</v>
+        <v>4087075676.012743</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1556924636503019</v>
+        <v>0.1786280480652091</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03474397001157716</v>
+        <v>0.04725938266841999</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>39</v>
+      </c>
+      <c r="J50" t="n">
+        <v>114</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>986234339.2570519</v>
+        <v>1241481998.921553</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1873002806732924</v>
+        <v>0.1366879480149029</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05236065613533927</v>
+        <v>0.03757328560050913</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3559623429.04793</v>
+        <v>4543439354.773406</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1039832739547739</v>
+        <v>0.1355747572643513</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04142303065319466</v>
+        <v>0.05394982061084356</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>88</v>
+      </c>
+      <c r="J52" t="n">
+        <v>114</v>
+      </c>
+      <c r="K52" t="n">
+        <v>160.0017586929398</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3736299367.894924</v>
+        <v>2995809521.309752</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1372573498919235</v>
+        <v>0.1468525102450826</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02835867692432314</v>
+        <v>0.0296850752753548</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>12</v>
+      </c>
+      <c r="J53" t="n">
+        <v>108</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2335,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3595985730.843665</v>
+        <v>4655107853.530677</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1276549638985987</v>
+        <v>0.1396380287480415</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04893236947800501</v>
+        <v>0.04978389749248709</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>52</v>
+      </c>
+      <c r="J54" t="n">
+        <v>113</v>
+      </c>
+      <c r="K54" t="n">
+        <v>154.386385352609</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2378,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4428675440.324885</v>
+        <v>3352661957.091788</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2129009887067583</v>
+        <v>0.1416988413416204</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03011880829272168</v>
+        <v>0.02078172058701331</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>52</v>
+      </c>
+      <c r="J55" t="n">
+        <v>112</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1763116513.320085</v>
+        <v>1296070970.038496</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1450934163774004</v>
+        <v>0.1439529852503935</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04964567644176882</v>
+        <v>0.04334094811751536</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2859744496.532237</v>
+        <v>4337480342.036165</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1565509804187679</v>
+        <v>0.1690221649791278</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02073748404622474</v>
+        <v>0.01930594259981796</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>44</v>
+      </c>
+      <c r="J57" t="n">
+        <v>114</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1503629657.259513</v>
+        <v>1660898238.37185</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1704271928234145</v>
+        <v>0.1229871138869812</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03129427938438521</v>
+        <v>0.03345018830396788</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3905493385.851974</v>
+        <v>4596299290.46174</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1078676827417557</v>
+        <v>0.07884924428996586</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04906981794354907</v>
+        <v>0.03211546521607227</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>55</v>
+      </c>
+      <c r="J59" t="n">
+        <v>114</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2803936095.896946</v>
+        <v>2726024796.179316</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1526620130108675</v>
+        <v>0.1327425357192762</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02508907806713463</v>
+        <v>0.02344585042790767</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>16</v>
+      </c>
+      <c r="J60" t="n">
+        <v>110</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2443537664.656842</v>
+        <v>2237492080.448724</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1733963695810205</v>
+        <v>0.134283941872317</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03095463894233859</v>
+        <v>0.02932757132488186</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>110</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1802594588.413773</v>
+        <v>1919525362.863067</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1323655153081206</v>
+        <v>0.1683664445764284</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04261486904391216</v>
+        <v>0.04911310084952417</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3584328175.386551</v>
+        <v>3975893616.254279</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1006070302803585</v>
+        <v>0.09574852168752562</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03128669979863924</v>
+        <v>0.04717721516646581</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>56</v>
+      </c>
+      <c r="J63" t="n">
+        <v>114</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5129942415.927597</v>
+        <v>3691372507.822665</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1726096819933215</v>
+        <v>0.1382242999695453</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03181388433345175</v>
+        <v>0.02845405998011063</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>56</v>
+      </c>
+      <c r="J64" t="n">
+        <v>114</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4825875716.437049</v>
+        <v>4047455713.004618</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1715196711754382</v>
+        <v>0.1122784018845048</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02653079660322053</v>
+        <v>0.02257843584642727</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>94</v>
+      </c>
+      <c r="J65" t="n">
+        <v>114</v>
+      </c>
+      <c r="K65" t="n">
+        <v>154.88666741672</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3981016413.74171</v>
+        <v>5026569226.31542</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1157449530002424</v>
+        <v>0.1374242415356164</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03109369697949765</v>
+        <v>0.04311375313269012</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>56</v>
+      </c>
+      <c r="J66" t="n">
+        <v>113</v>
+      </c>
+      <c r="K66" t="n">
+        <v>143.5677749298283</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3378076063.412052</v>
+        <v>2986333020.902822</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06581290326936867</v>
+        <v>0.07679576235844449</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03825518783910872</v>
+        <v>0.04460360986988489</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5415106633.443439</v>
+        <v>4422490338.121204</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1438198171216087</v>
+        <v>0.1367112755432949</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04087360447256569</v>
+        <v>0.04753540115176685</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>57</v>
+      </c>
+      <c r="J68" t="n">
+        <v>113</v>
+      </c>
+      <c r="K68" t="n">
+        <v>144.8109751277212</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2244276436.354416</v>
+        <v>2066521048.669327</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1703024134100055</v>
+        <v>0.1375473365399729</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04173506652880908</v>
+        <v>0.04754687031258254</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3346172164.983044</v>
+        <v>3723990785.220181</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06446309629471751</v>
+        <v>0.07148181734357097</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03038615062133971</v>
+        <v>0.03078094674673884</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>13</v>
+      </c>
+      <c r="J70" t="n">
+        <v>114</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4207609771.229448</v>
+        <v>4634526291.750114</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1527512790216365</v>
+        <v>0.1184446773092691</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0294549924540292</v>
+        <v>0.02952559736132822</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>93</v>
+      </c>
+      <c r="J71" t="n">
+        <v>114</v>
+      </c>
+      <c r="K71" t="n">
+        <v>157.0531681523726</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1782123928.000329</v>
+        <v>1476744909.43291</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1057870946576455</v>
+        <v>0.0655157023896184</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05173435134945571</v>
+        <v>0.0415905439305489</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2582227465.928347</v>
+        <v>2515184026.989671</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07330336173567059</v>
+        <v>0.09434961921470375</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04911945211687593</v>
+        <v>0.04348311161671874</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>111</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3361133686.515234</v>
+        <v>3392746673.741759</v>
       </c>
       <c r="F74" t="n">
-        <v>0.140292208540236</v>
+        <v>0.1681512061196266</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03222001813268511</v>
+        <v>0.02178886597811019</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>38</v>
+      </c>
+      <c r="J74" t="n">
+        <v>109</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2014543128.954701</v>
+        <v>2191197079.366995</v>
       </c>
       <c r="F75" t="n">
-        <v>0.124991405065854</v>
+        <v>0.1113284527367441</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02480629175487446</v>
+        <v>0.03142681698120648</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3595492027.377856</v>
+        <v>5326253217.539982</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1114641091512334</v>
+        <v>0.08948708231552188</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03362550653969228</v>
+        <v>0.02433386708503308</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>53</v>
+      </c>
+      <c r="J76" t="n">
+        <v>113</v>
+      </c>
+      <c r="K76" t="n">
+        <v>126.5981778662686</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1758463602.544126</v>
+        <v>1487214020.664919</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1867183346654357</v>
+        <v>0.1322484401118106</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02814662512736724</v>
+        <v>0.02883666339852657</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4162510039.941079</v>
+        <v>4016128965.75564</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1157264548143733</v>
+        <v>0.1151071223313321</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04333080092232171</v>
+        <v>0.05453239582091257</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>57</v>
+      </c>
+      <c r="J78" t="n">
+        <v>113</v>
+      </c>
+      <c r="K78" t="n">
+        <v>153.6074995881337</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1529833968.327024</v>
+        <v>1249765012.10121</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1350119314723713</v>
+        <v>0.1071399390941504</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02894621195376224</v>
+        <v>0.03777638150959535</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3265,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4551197000.471705</v>
+        <v>5254579489.837739</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1038641772408655</v>
+        <v>0.08206783760117792</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03873241986217194</v>
+        <v>0.03008764455803516</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>55</v>
+      </c>
+      <c r="J80" t="n">
+        <v>113</v>
+      </c>
+      <c r="K80" t="n">
+        <v>116.5430656186756</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3296,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3687591676.628481</v>
+        <v>3356884904.708481</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1077792431399037</v>
+        <v>0.0831659929281333</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02179512895461741</v>
+        <v>0.030760259470746</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>51</v>
+      </c>
+      <c r="J81" t="n">
+        <v>113</v>
+      </c>
+      <c r="K81" t="n">
+        <v>87.82723354316245</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3333,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4633116195.445157</v>
+        <v>4751268416.641273</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1766331022513878</v>
+        <v>0.1402103586282421</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01952098911506217</v>
+        <v>0.0227750218521292</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>77</v>
+      </c>
+      <c r="J82" t="n">
+        <v>114</v>
+      </c>
+      <c r="K82" t="n">
+        <v>163.521391375972</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3376,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1961165759.825146</v>
+        <v>1609496141.895457</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1124591404479813</v>
+        <v>0.1068651381157761</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04407798086858254</v>
+        <v>0.03395330579911701</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3411,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1666098325.832744</v>
+        <v>1894193010.984254</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09966447643582227</v>
+        <v>0.1102471300557256</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04463886696770169</v>
+        <v>0.05109014581950891</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3440,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2992726329.330857</v>
+        <v>2401162400.277088</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1356152858432668</v>
+        <v>0.161669486532405</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05501345516572909</v>
+        <v>0.05464198401375572</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3475,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2613304235.498389</v>
+        <v>2197923686.316721</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1583287587112909</v>
+        <v>0.1262144791665764</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0225040684984726</v>
+        <v>0.02125023580040662</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3510,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1478258064.49384</v>
+        <v>1458211662.141734</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1613439356071943</v>
+        <v>0.1722091903730148</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03698325551479956</v>
+        <v>0.03620631363424476</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3551,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3453369582.984511</v>
+        <v>3221527674.779074</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1511181141015263</v>
+        <v>0.1122733738074726</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03357138316892981</v>
+        <v>0.03572573718792767</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>17</v>
+      </c>
+      <c r="J88" t="n">
+        <v>106</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3301657409.193649</v>
+        <v>2188931193.563302</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1602259748011956</v>
+        <v>0.1308727492806928</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03093906836210357</v>
+        <v>0.02958555469701832</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1545231765.084538</v>
+        <v>1349458899.483167</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1202297083219611</v>
+        <v>0.1237323595144018</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05136087349239659</v>
+        <v>0.03571285323735889</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3656,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1935725487.720791</v>
+        <v>1796689987.762371</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1397829983485819</v>
+        <v>0.1673266440375553</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04068744300671932</v>
+        <v>0.05915411013952377</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2627354266.765493</v>
+        <v>2814092157.108684</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06673388350155153</v>
+        <v>0.08657546916295489</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03143921377531927</v>
+        <v>0.04602788342767269</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4183732339.406844</v>
+        <v>3505678522.532657</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1279287618445546</v>
+        <v>0.09119186213567897</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04877276537803242</v>
+        <v>0.03673547681743094</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>52</v>
+      </c>
+      <c r="J93" t="n">
+        <v>114</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1760378889.296627</v>
+        <v>2242566790.19761</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1112629851178613</v>
+        <v>0.1524923314671049</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02969589381911962</v>
+        <v>0.03714541857712206</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3090393340.413475</v>
+        <v>2781763930.826166</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1343767400987877</v>
+        <v>0.1149401099721175</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03482880163593192</v>
+        <v>0.04144370405779482</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1478315035.949254</v>
+        <v>2345765290.271747</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1130144189987536</v>
+        <v>0.1169321672940906</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03980977641280463</v>
+        <v>0.03431712535078049</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4329737732.811196</v>
+        <v>3332642516.332587</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1768655919463556</v>
+        <v>0.1363168999417464</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02263210750869774</v>
+        <v>0.02262533383662204</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>54</v>
+      </c>
+      <c r="J97" t="n">
+        <v>112</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2544578884.438334</v>
+        <v>3485356482.494263</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1191452976792805</v>
+        <v>0.0814218173572768</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03226728491849673</v>
+        <v>0.02287705423006537</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>26</v>
+      </c>
+      <c r="J98" t="n">
+        <v>114</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2259318039.153068</v>
+        <v>3176047026.111179</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1213433201616877</v>
+        <v>0.09066217297097189</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03045619704743784</v>
+        <v>0.02926319032648046</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3219903029.631289</v>
+        <v>3500855350.422367</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1549871792363409</v>
+        <v>0.1645586303417979</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01913737229913306</v>
+        <v>0.02172311519709079</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>46</v>
+      </c>
+      <c r="J100" t="n">
+        <v>114</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2495088390.097845</v>
+        <v>2811568495.126029</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1958251223851258</v>
+        <v>0.2115657096166082</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05053095631251023</v>
+        <v>0.05706512035329182</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>103</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
